--- a/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
+++ b/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keil\ValvanoWareTM4C123\EE-445L-Labs\Lab7\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keil\ValvanoWareTM4C123\EE-445L-Labs\Lab7-FinalProjectHardware\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,30 +29,12 @@
     <t>Port A</t>
   </si>
   <si>
-    <t xml:space="preserve">PA1 - </t>
-  </si>
-  <si>
     <t>Port B</t>
   </si>
   <si>
-    <t xml:space="preserve">PB3 - </t>
-  </si>
-  <si>
     <t>Port C</t>
   </si>
   <si>
-    <t>PC4 -</t>
-  </si>
-  <si>
-    <t>PC5 -</t>
-  </si>
-  <si>
-    <t>PC6 -</t>
-  </si>
-  <si>
-    <t>PC7 -</t>
-  </si>
-  <si>
     <t>Port D</t>
   </si>
   <si>
@@ -62,21 +44,6 @@
     <t>Port F</t>
   </si>
   <si>
-    <t xml:space="preserve">PF0 - </t>
-  </si>
-  <si>
-    <t>PF2 -</t>
-  </si>
-  <si>
-    <t>PF3 -</t>
-  </si>
-  <si>
-    <t>PF4 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF1 - </t>
-  </si>
-  <si>
     <t>PA0 - (LCD) CARD_CS</t>
   </si>
   <si>
@@ -171,6 +138,39 @@
   </si>
   <si>
     <t>PB6 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PB3 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PC4 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PC5 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PC6 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PC7 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PA1 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PF0 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PF1 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PF2 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PF3 - (LogAn)</t>
+  </si>
+  <si>
+    <t>PF4 - (LogAn)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,7 @@
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,164 +517,164 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
+++ b/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
+++ b/Lab7-FinalProjectHardware/Deliverables/Port_Assignments.xlsx
@@ -499,17 +499,16 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
